--- a/a/HeaderInfo.xlsx
+++ b/a/HeaderInfo.xlsx
@@ -49,7 +49,7 @@
     <t>transform</t>
   </si>
   <si>
-    <t>a/a/a/t0.nii.json</t>
+    <t>a/a/t0.nii.json</t>
   </si>
   <si>
     <t>Int16LE</t>
@@ -61,7 +61,7 @@
     <t>map[comments:TE=3.4;Time=133249.630]</t>
   </si>
   <si>
-    <t>a/a/a/t0.nii</t>
+    <t>a/a/t0.nii</t>
   </si>
   <si>
     <t>[260 240 163]</t>
@@ -76,13 +76,13 @@
     <t>[[0.998823133849016 0.0169896140099183 0.0454279522126988 -84.1379699707031] [-0.015760980931013 0.999503944634638 -0.0272663500325376 -131.413665771484] [-0.0458687123006852 0.0265182517446291 0.998595437258585 -42.9854316711426] [0 0 0 1]]</t>
   </si>
   <si>
-    <t>a/a/a/t1.nii.json</t>
+    <t>a/a/t1.nii.json</t>
   </si>
   <si>
     <t>map[comments:TE=3.4;Time=193910.500]</t>
   </si>
   <si>
-    <t>a/a/a/t1.nii</t>
+    <t>a/a/t1.nii</t>
   </si>
   <si>
     <t>[301 240 163]</t>

--- a/a/HeaderInfo.xlsx
+++ b/a/HeaderInfo.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t/>
+    <t>json file</t>
   </si>
   <si>
     <t>datatype</t>
